--- a/Order Online/SKU buat andra.xlsx
+++ b/Order Online/SKU buat andra.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25629"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Masterdata\Order Online\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.nathanael\Documents\Python\Data\2. Master Data Git\Order Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4E758569-3809-4C81-8106-5B1D53BA113C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8D697-C12A-4B9A-90EF-600CD8726397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10560" xr2:uid="{05C540D1-F615-4CDC-B067-E183E34E08D0}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{05C540D1-F615-4CDC-B067-E183E34E08D0}"/>
   </bookViews>
   <sheets>
     <sheet name="Reference" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="138" uniqueCount="127">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
   <si>
     <t>L Men Gain Mass Chocolate 500 gr</t>
   </si>
@@ -420,6 +420,12 @@
   </si>
   <si>
     <t>Nutrisari Jeruk Jeju 40 sch</t>
+  </si>
+  <si>
+    <t>NutriSari Jeruk Nipis Jahe 40 sch</t>
+  </si>
+  <si>
+    <t>2102500320 (CI160) TS SWT 160S IND</t>
   </si>
 </sst>
 </file>
@@ -427,9 +433,9 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="3">
-    <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#,##0;[Red]\-&quot;Rp&quot;#,##0"/>
-    <numFmt numFmtId="165" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="166" formatCode="&quot;Rp&quot;#.##0"/>
+    <numFmt numFmtId="6" formatCode="&quot;Rp&quot;#,##0;[Red]\-&quot;Rp&quot;#,##0"/>
+    <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#.##0"/>
   </numFmts>
   <fonts count="9">
     <font>
@@ -532,23 +538,23 @@
   <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
-    <xf numFmtId="165" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="22">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="164" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="4" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
-    <xf numFmtId="164" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="6" fontId="3" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -557,18 +563,15 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="6" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
     <xf numFmtId="164" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="166" fontId="0" fillId="2" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="165" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
-    <xf numFmtId="165" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
+    <xf numFmtId="41" fontId="4" fillId="0" borderId="0" xfId="2" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="right"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -1020,22 +1023,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3C1FAA-F90F-4FAF-8DA0-E08BDBAFF393}">
-  <dimension ref="A1:E110"/>
+  <dimension ref="A1:E112"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A110" sqref="A110"/>
+      <selection activeCell="C111" sqref="C111:D112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
   <cols>
-    <col min="1" max="1" width="15.6640625" style="18" customWidth="1"/>
+    <col min="1" max="1" width="15.6640625" customWidth="1"/>
     <col min="2" max="2" width="67.6640625" customWidth="1"/>
     <col min="3" max="3" width="19.9140625" style="5" customWidth="1"/>
     <col min="4" max="4" width="9.58203125" style="3" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:4">
-      <c r="A1" s="17"/>
       <c r="B1" s="3" t="s">
         <v>34</v>
       </c>
@@ -1052,7 +1054,7 @@
       </c>
     </row>
     <row r="3" spans="1:4">
-      <c r="A3" s="18">
+      <c r="A3">
         <v>2101452180</v>
       </c>
       <c r="B3" s="1" t="s">
@@ -1066,7 +1068,7 @@
       </c>
     </row>
     <row r="4" spans="1:4">
-      <c r="A4" s="18">
+      <c r="A4">
         <v>2101551180</v>
       </c>
       <c r="B4" t="s">
@@ -1080,7 +1082,7 @@
       </c>
     </row>
     <row r="5" spans="1:4">
-      <c r="A5" s="18" t="s">
+      <c r="A5" t="s">
         <v>90</v>
       </c>
       <c r="B5" s="1" t="s">
@@ -1094,7 +1096,7 @@
       </c>
     </row>
     <row r="6" spans="1:4" ht="16" thickBot="1">
-      <c r="A6" s="18">
+      <c r="A6">
         <v>2101453155</v>
       </c>
       <c r="B6" s="8" t="s">
@@ -1108,7 +1110,7 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16" thickBot="1">
-      <c r="A7" s="18">
+      <c r="A7">
         <v>2101453180</v>
       </c>
       <c r="B7" s="8" t="s">
@@ -1122,7 +1124,7 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16" thickBot="1">
-      <c r="A8" s="18">
+      <c r="A8">
         <v>2101454302</v>
       </c>
       <c r="B8" s="8" t="s">
@@ -1136,7 +1138,7 @@
       </c>
     </row>
     <row r="9" spans="1:4" ht="16" thickBot="1">
-      <c r="A9" s="18">
+      <c r="A9">
         <v>2101484302</v>
       </c>
       <c r="B9" s="8" t="s">
@@ -1150,7 +1152,7 @@
       </c>
     </row>
     <row r="10" spans="1:4">
-      <c r="A10" s="18">
+      <c r="A10">
         <v>2101453190</v>
       </c>
       <c r="B10" s="1" t="s">
@@ -1164,7 +1166,7 @@
       </c>
     </row>
     <row r="11" spans="1:4">
-      <c r="A11" s="18">
+      <c r="A11">
         <v>2101651180</v>
       </c>
       <c r="B11" s="1" t="s">
@@ -1178,7 +1180,7 @@
       </c>
     </row>
     <row r="12" spans="1:4" ht="16" thickBot="1">
-      <c r="A12" s="18">
+      <c r="A12">
         <v>2101651190</v>
       </c>
       <c r="B12" s="8" t="s">
@@ -1192,7 +1194,7 @@
       </c>
     </row>
     <row r="13" spans="1:4" ht="16" thickBot="1">
-      <c r="A13" s="18" t="s">
+      <c r="A13" t="s">
         <v>91</v>
       </c>
       <c r="B13" s="8" t="s">
@@ -1206,7 +1208,7 @@
       </c>
     </row>
     <row r="14" spans="1:4">
-      <c r="A14" s="18">
+      <c r="A14">
         <v>2104405</v>
       </c>
       <c r="B14" s="1" t="s">
@@ -1220,7 +1222,7 @@
       </c>
     </row>
     <row r="15" spans="1:4">
-      <c r="A15" s="18">
+      <c r="A15">
         <v>2104251230</v>
       </c>
       <c r="B15" s="2" t="s">
@@ -1234,7 +1236,7 @@
       </c>
     </row>
     <row r="16" spans="1:4" ht="16" thickBot="1">
-      <c r="A16" s="18">
+      <c r="A16">
         <v>2101385106</v>
       </c>
       <c r="B16" s="8" t="s">
@@ -1248,7 +1250,7 @@
       </c>
     </row>
     <row r="17" spans="1:4" ht="16" thickBot="1">
-      <c r="A17" s="18">
+      <c r="A17">
         <v>2101384106</v>
       </c>
       <c r="B17" s="8" t="s">
@@ -1262,7 +1264,7 @@
       </c>
     </row>
     <row r="18" spans="1:4">
-      <c r="A18" s="18">
+      <c r="A18">
         <v>2104523105</v>
       </c>
       <c r="B18" s="1" t="s">
@@ -1276,7 +1278,7 @@
       </c>
     </row>
     <row r="19" spans="1:4">
-      <c r="A19" s="18">
+      <c r="A19">
         <v>2105084180</v>
       </c>
       <c r="B19" s="1" t="s">
@@ -1290,7 +1292,7 @@
       </c>
     </row>
     <row r="20" spans="1:4">
-      <c r="A20" s="18">
+      <c r="A20">
         <v>2102300105</v>
       </c>
       <c r="B20" s="1" t="s">
@@ -1304,7 +1306,7 @@
       </c>
     </row>
     <row r="21" spans="1:4">
-      <c r="A21" s="18">
+      <c r="A21">
         <v>2104010270</v>
       </c>
       <c r="B21" s="1" t="s">
@@ -1318,7 +1320,7 @@
       </c>
     </row>
     <row r="22" spans="1:4" ht="16" thickBot="1">
-      <c r="A22" s="18">
+      <c r="A22">
         <v>2104030270</v>
       </c>
       <c r="B22" s="8" t="s">
@@ -1332,7 +1334,7 @@
       </c>
     </row>
     <row r="23" spans="1:4" ht="16" thickBot="1">
-      <c r="A23" s="18">
+      <c r="A23">
         <v>2102500125</v>
       </c>
       <c r="B23" s="8" t="s">
@@ -1346,7 +1348,7 @@
       </c>
     </row>
     <row r="24" spans="1:4" ht="16" thickBot="1">
-      <c r="A24" s="18">
+      <c r="A24">
         <v>2102900125</v>
       </c>
       <c r="B24" s="8" t="s">
@@ -1360,7 +1362,7 @@
       </c>
     </row>
     <row r="25" spans="1:4">
-      <c r="A25" s="18">
+      <c r="A25">
         <v>2104110110</v>
       </c>
       <c r="B25" s="1" t="s">
@@ -1374,7 +1376,7 @@
       </c>
     </row>
     <row r="26" spans="1:4">
-      <c r="A26" s="18">
+      <c r="A26">
         <v>2103300125</v>
       </c>
       <c r="B26" s="1" t="s">
@@ -1388,7 +1390,7 @@
       </c>
     </row>
     <row r="27" spans="1:4">
-      <c r="A27" s="18">
+      <c r="A27">
         <v>2102501125</v>
       </c>
       <c r="B27" s="1" t="s">
@@ -1402,7 +1404,7 @@
       </c>
     </row>
     <row r="28" spans="1:4">
-      <c r="A28" s="18">
+      <c r="A28">
         <v>2104228230</v>
       </c>
       <c r="B28" s="1" t="s">
@@ -1416,7 +1418,7 @@
       </c>
     </row>
     <row r="29" spans="1:4">
-      <c r="A29" s="18">
+      <c r="A29">
         <v>2104402</v>
       </c>
       <c r="B29" s="1" t="s">
@@ -1430,7 +1432,7 @@
       </c>
     </row>
     <row r="30" spans="1:4">
-      <c r="A30" s="18">
+      <c r="A30">
         <v>2102500130</v>
       </c>
       <c r="B30" s="1" t="s">
@@ -1444,7 +1446,7 @@
       </c>
     </row>
     <row r="31" spans="1:4">
-      <c r="A31" s="18">
+      <c r="A31">
         <v>2102900130</v>
       </c>
       <c r="B31" s="1" t="s">
@@ -1458,7 +1460,7 @@
       </c>
     </row>
     <row r="32" spans="1:4">
-      <c r="A32" s="18">
+      <c r="A32">
         <v>2104390210</v>
       </c>
       <c r="B32" s="1" t="s">
@@ -1472,7 +1474,7 @@
       </c>
     </row>
     <row r="33" spans="1:5">
-      <c r="A33" s="18">
+      <c r="A33">
         <v>2102040225</v>
       </c>
       <c r="B33" s="1" t="s">
@@ -1486,7 +1488,7 @@
       </c>
     </row>
     <row r="34" spans="1:5">
-      <c r="A34" s="18">
+      <c r="A34">
         <v>2105500225</v>
       </c>
       <c r="B34" s="1" t="s">
@@ -1500,7 +1502,7 @@
       </c>
     </row>
     <row r="35" spans="1:5">
-      <c r="A35" s="18">
+      <c r="A35">
         <v>1101909331</v>
       </c>
       <c r="B35" s="1" t="s">
@@ -1514,7 +1516,7 @@
       </c>
     </row>
     <row r="36" spans="1:5">
-      <c r="A36" s="18">
+      <c r="A36">
         <v>1101569326</v>
       </c>
       <c r="B36" s="1" t="s">
@@ -1528,7 +1530,7 @@
       </c>
     </row>
     <row r="37" spans="1:5">
-      <c r="A37" s="18">
+      <c r="A37">
         <v>1101983453</v>
       </c>
       <c r="B37" s="1" t="s">
@@ -1542,7 +1544,7 @@
       </c>
     </row>
     <row r="38" spans="1:5">
-      <c r="A38" s="18">
+      <c r="A38">
         <v>1101522453</v>
       </c>
       <c r="B38" s="1" t="s">
@@ -1556,7 +1558,7 @@
       </c>
     </row>
     <row r="39" spans="1:5">
-      <c r="A39" s="18">
+      <c r="A39">
         <v>1101907331</v>
       </c>
       <c r="B39" s="1" t="s">
@@ -1570,7 +1572,7 @@
       </c>
     </row>
     <row r="40" spans="1:5">
-      <c r="A40" s="18">
+      <c r="A40">
         <v>1101681318</v>
       </c>
       <c r="B40" s="1" t="s">
@@ -1584,7 +1586,7 @@
       </c>
     </row>
     <row r="41" spans="1:5">
-      <c r="A41" s="18">
+      <c r="A41">
         <v>1101685318</v>
       </c>
       <c r="B41" s="1" t="s">
@@ -1598,7 +1600,7 @@
       </c>
     </row>
     <row r="42" spans="1:5">
-      <c r="A42" s="18">
+      <c r="A42">
         <v>2301050106</v>
       </c>
       <c r="B42" s="1" t="s">
@@ -1612,7 +1614,7 @@
       </c>
     </row>
     <row r="43" spans="1:5">
-      <c r="A43" s="18" t="s">
+      <c r="A43" t="s">
         <v>92</v>
       </c>
       <c r="B43" s="1" t="s">
@@ -1624,10 +1626,10 @@
       <c r="D43" s="11">
         <v>48000</v>
       </c>
-      <c r="E43" s="16"/>
+      <c r="E43" s="15"/>
     </row>
     <row r="44" spans="1:5">
-      <c r="A44" s="18">
+      <c r="A44">
         <v>2304051151</v>
       </c>
       <c r="B44" s="1" t="s">
@@ -1641,7 +1643,7 @@
       </c>
     </row>
     <row r="45" spans="1:5">
-      <c r="A45" s="18">
+      <c r="A45">
         <v>2304008151</v>
       </c>
       <c r="B45" s="1" t="s">
@@ -1655,7 +1657,7 @@
       </c>
     </row>
     <row r="46" spans="1:5">
-      <c r="A46" s="18">
+      <c r="A46">
         <v>2306551174</v>
       </c>
       <c r="B46" s="1" t="s">
@@ -1669,7 +1671,7 @@
       </c>
     </row>
     <row r="47" spans="1:5">
-      <c r="A47" s="18">
+      <c r="A47">
         <v>2304051180</v>
       </c>
       <c r="B47" s="1" t="s">
@@ -1683,10 +1685,10 @@
       </c>
     </row>
     <row r="48" spans="1:5">
-      <c r="A48" s="18">
+      <c r="A48">
         <v>2304558112</v>
       </c>
-      <c r="B48" s="12" t="s">
+      <c r="B48" s="1" t="s">
         <v>37</v>
       </c>
       <c r="C48" s="7">
@@ -1697,7 +1699,7 @@
       </c>
     </row>
     <row r="49" spans="1:4">
-      <c r="A49" s="18">
+      <c r="A49">
         <v>2104153110</v>
       </c>
       <c r="B49" t="s">
@@ -1711,7 +1713,7 @@
       </c>
     </row>
     <row r="50" spans="1:4">
-      <c r="A50" s="18">
+      <c r="A50">
         <v>2104170104</v>
       </c>
       <c r="B50" s="1" t="s">
@@ -1725,7 +1727,7 @@
       </c>
     </row>
     <row r="51" spans="1:4">
-      <c r="A51" s="18" t="s">
+      <c r="A51" t="s">
         <v>55</v>
       </c>
       <c r="B51" t="s">
@@ -1739,7 +1741,7 @@
       </c>
     </row>
     <row r="52" spans="1:4">
-      <c r="A52" s="18">
+      <c r="A52">
         <v>2104390210</v>
       </c>
       <c r="B52" t="s">
@@ -1753,7 +1755,7 @@
       </c>
     </row>
     <row r="53" spans="1:4">
-      <c r="A53" s="18">
+      <c r="A53">
         <v>1101155250</v>
       </c>
       <c r="B53" t="s">
@@ -1767,7 +1769,7 @@
       </c>
     </row>
     <row r="54" spans="1:4">
-      <c r="A54" s="19" t="s">
+      <c r="A54" s="16" t="s">
         <v>59</v>
       </c>
       <c r="B54" t="s">
@@ -1781,7 +1783,7 @@
       </c>
     </row>
     <row r="55" spans="1:4">
-      <c r="A55" s="19" t="s">
+      <c r="A55" s="16" t="s">
         <v>61</v>
       </c>
       <c r="B55" t="s">
@@ -1795,7 +1797,7 @@
       </c>
     </row>
     <row r="56" spans="1:4">
-      <c r="A56" s="18" t="s">
+      <c r="A56" t="s">
         <v>63</v>
       </c>
       <c r="B56" t="s">
@@ -1817,7 +1819,7 @@
       </c>
     </row>
     <row r="58" spans="1:4">
-      <c r="A58" s="19">
+      <c r="A58" s="16">
         <v>1101987453</v>
       </c>
       <c r="B58" t="s">
@@ -1831,7 +1833,7 @@
       </c>
     </row>
     <row r="59" spans="1:4">
-      <c r="A59" s="18" t="s">
+      <c r="A59" t="s">
         <v>67</v>
       </c>
       <c r="B59" t="s">
@@ -1840,12 +1842,12 @@
       <c r="C59">
         <v>40500</v>
       </c>
-      <c r="D59" s="13">
+      <c r="D59" s="12">
         <v>37200</v>
       </c>
     </row>
     <row r="60" spans="1:4">
-      <c r="A60" s="18" t="s">
+      <c r="A60" t="s">
         <v>69</v>
       </c>
       <c r="B60" t="s">
@@ -1859,7 +1861,7 @@
       </c>
     </row>
     <row r="61" spans="1:4">
-      <c r="A61" s="18" t="s">
+      <c r="A61" t="s">
         <v>71</v>
       </c>
       <c r="B61" t="s">
@@ -1873,164 +1875,164 @@
       </c>
     </row>
     <row r="62" spans="1:4">
-      <c r="A62" s="18" t="s">
+      <c r="A62" t="s">
         <v>73</v>
       </c>
       <c r="B62" t="s">
         <v>72</v>
       </c>
-      <c r="C62" s="13">
+      <c r="C62" s="12">
         <v>157500</v>
       </c>
-      <c r="D62" s="13">
+      <c r="D62" s="12">
         <v>126000</v>
       </c>
     </row>
     <row r="63" spans="1:4">
-      <c r="A63" s="18" t="s">
+      <c r="A63" t="s">
         <v>75</v>
       </c>
       <c r="B63" t="s">
         <v>74</v>
       </c>
-      <c r="C63" s="13">
+      <c r="C63" s="12">
         <v>157500</v>
       </c>
-      <c r="D63" s="13">
+      <c r="D63" s="12">
         <v>126000</v>
       </c>
     </row>
     <row r="64" spans="1:4">
-      <c r="A64" s="18" t="s">
+      <c r="A64" t="s">
         <v>77</v>
       </c>
       <c r="B64" t="s">
         <v>76</v>
       </c>
-      <c r="C64" s="13">
+      <c r="C64" s="12">
         <v>157500</v>
       </c>
-      <c r="D64" s="13">
+      <c r="D64" s="12">
         <v>126000</v>
       </c>
     </row>
     <row r="65" spans="1:4">
-      <c r="A65" s="18" t="s">
+      <c r="A65" t="s">
         <v>79</v>
       </c>
       <c r="B65" t="s">
         <v>78</v>
       </c>
-      <c r="C65" s="13">
+      <c r="C65" s="12">
         <v>157500</v>
       </c>
-      <c r="D65" s="13">
+      <c r="D65" s="12">
         <v>126000</v>
       </c>
     </row>
     <row r="66" spans="1:4">
-      <c r="A66" s="18">
+      <c r="A66">
         <v>2101551190</v>
       </c>
       <c r="B66" t="s">
         <v>80</v>
       </c>
-      <c r="C66" s="14">
+      <c r="C66" s="13">
         <v>127100</v>
       </c>
-      <c r="D66" s="15">
+      <c r="D66" s="14">
         <v>92500</v>
       </c>
     </row>
     <row r="67" spans="1:4">
-      <c r="A67" s="18" t="s">
+      <c r="A67" t="s">
         <v>73</v>
       </c>
       <c r="B67" t="s">
         <v>72</v>
       </c>
-      <c r="C67" s="13">
+      <c r="C67" s="12">
         <v>157500</v>
       </c>
-      <c r="D67" s="13">
+      <c r="D67" s="12">
         <v>126000</v>
       </c>
     </row>
     <row r="68" spans="1:4">
-      <c r="A68" s="18" t="s">
+      <c r="A68" t="s">
         <v>75</v>
       </c>
       <c r="B68" t="s">
         <v>74</v>
       </c>
-      <c r="C68" s="13">
+      <c r="C68" s="12">
         <v>157500</v>
       </c>
-      <c r="D68" s="13">
+      <c r="D68" s="12">
         <v>126000</v>
       </c>
     </row>
     <row r="69" spans="1:4">
-      <c r="A69" s="18" t="s">
+      <c r="A69" t="s">
         <v>77</v>
       </c>
       <c r="B69" t="s">
         <v>76</v>
       </c>
-      <c r="C69" s="13">
+      <c r="C69" s="12">
         <v>157500</v>
       </c>
-      <c r="D69" s="13">
+      <c r="D69" s="12">
         <v>126000</v>
       </c>
     </row>
     <row r="70" spans="1:4">
-      <c r="A70" s="18" t="s">
+      <c r="A70" t="s">
         <v>79</v>
       </c>
       <c r="B70" t="s">
         <v>78</v>
       </c>
-      <c r="C70" s="13">
+      <c r="C70" s="12">
         <v>157500</v>
       </c>
-      <c r="D70" s="13">
+      <c r="D70" s="12">
         <v>126000</v>
       </c>
     </row>
     <row r="71" spans="1:4">
-      <c r="A71" s="18" t="s">
+      <c r="A71" t="s">
         <v>83</v>
       </c>
       <c r="B71" t="s">
         <v>81</v>
       </c>
-      <c r="C71" s="13">
+      <c r="C71" s="12">
         <v>17500</v>
       </c>
-      <c r="D71" s="13">
+      <c r="D71" s="12">
         <v>15000</v>
       </c>
     </row>
     <row r="72" spans="1:4">
-      <c r="A72" s="18">
+      <c r="A72">
         <v>1101989453</v>
       </c>
       <c r="B72" t="s">
         <v>82</v>
       </c>
-      <c r="C72" s="13">
+      <c r="C72" s="12">
         <v>54000</v>
       </c>
-      <c r="D72" s="13">
+      <c r="D72" s="12">
         <v>42000</v>
       </c>
     </row>
     <row r="73" spans="1:4">
-      <c r="A73" s="20" t="s">
+      <c r="A73" s="17" t="s">
         <v>93</v>
       </c>
-      <c r="B73" s="16" t="s">
+      <c r="B73" s="15" t="s">
         <v>84</v>
       </c>
       <c r="C73" s="5">
@@ -2043,7 +2045,7 @@
       </c>
     </row>
     <row r="74" spans="1:4">
-      <c r="A74" s="18">
+      <c r="A74">
         <v>2102500318</v>
       </c>
       <c r="B74" t="s">
@@ -2054,7 +2056,7 @@
       </c>
     </row>
     <row r="75" spans="1:4">
-      <c r="A75" s="18">
+      <c r="A75">
         <v>2102500336</v>
       </c>
       <c r="B75" t="s">
@@ -2065,7 +2067,7 @@
       </c>
     </row>
     <row r="76" spans="1:4">
-      <c r="A76" s="18">
+      <c r="A76">
         <v>2102900319</v>
       </c>
       <c r="B76" t="s">
@@ -2076,7 +2078,7 @@
       </c>
     </row>
     <row r="77" spans="1:4">
-      <c r="A77" s="18">
+      <c r="A77">
         <v>2101852450</v>
       </c>
       <c r="B77" t="s">
@@ -2090,7 +2092,7 @@
       </c>
     </row>
     <row r="78" spans="1:4">
-      <c r="A78" s="18">
+      <c r="A78">
         <v>2309005305</v>
       </c>
       <c r="B78" t="s">
@@ -2104,7 +2106,7 @@
       </c>
     </row>
     <row r="79" spans="1:4">
-      <c r="A79" s="20">
+      <c r="A79" s="17">
         <v>1101681318</v>
       </c>
       <c r="B79" t="s">
@@ -2118,7 +2120,7 @@
       </c>
     </row>
     <row r="80" spans="1:4">
-      <c r="A80" s="20">
+      <c r="A80" s="17">
         <v>1101543453</v>
       </c>
       <c r="B80" t="s">
@@ -2132,7 +2134,7 @@
       </c>
     </row>
     <row r="81" spans="1:4">
-      <c r="A81" s="18" t="s">
+      <c r="A81" t="s">
         <v>96</v>
       </c>
       <c r="B81" t="s">
@@ -2152,10 +2154,10 @@
       <c r="B82" t="s">
         <v>98</v>
       </c>
-      <c r="C82" s="21">
+      <c r="C82" s="18">
         <v>92400</v>
       </c>
-      <c r="D82" s="21">
+      <c r="D82" s="18">
         <v>92400</v>
       </c>
     </row>
@@ -2549,6 +2551,34 @@
       </c>
       <c r="D110" s="5">
         <v>45000</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4">
+      <c r="A111">
+        <v>1101505453</v>
+      </c>
+      <c r="B111" t="s">
+        <v>127</v>
+      </c>
+      <c r="C111">
+        <v>45000</v>
+      </c>
+      <c r="D111">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4">
+      <c r="A112">
+        <v>2102500320</v>
+      </c>
+      <c r="B112" t="s">
+        <v>128</v>
+      </c>
+      <c r="C112" s="12">
+        <v>76590</v>
+      </c>
+      <c r="D112" s="12">
+        <v>76590</v>
       </c>
     </row>
   </sheetData>
@@ -2629,6 +2659,21 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement/>
+</p:properties>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010036D38FCCD0579445B3C44626B0EC1798" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b26221e4e125bc28b125e145a348a87e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="91e3e34f-efd1-47ae-9232-7a9f8f496e92" xmlns:ns4="86c81e6b-d20c-439f-a303-383fc99047f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73d11df11d72784df8752f1efb773fd0" ns3:_="" ns4:_="">
     <xsd:import namespace="91e3e34f-efd1-47ae-9232-7a9f8f496e92"/>
@@ -2837,22 +2882,24 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB85A4BE-2BA5-45BF-A768-5F0B0A569CA7}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement/>
-</p:properties>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB88AEA9-E134-42D5-871A-0C35B856AF7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4B00E6C-B214-4326-9239-6AB29441C914}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2869,21 +2916,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB88AEA9-E134-42D5-871A-0C35B856AF7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB85A4BE-2BA5-45BF-A768-5F0B0A569CA7}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>
--- a/Order Online/SKU buat andra.xlsx
+++ b/Order Online/SKU buat andra.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.nathanael\Documents\Python\Data\2. Master Data Git\Order Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63E8D697-C12A-4B9A-90EF-600CD8726397}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6FA8D4-46F5-464C-A9BD-259B36EF35EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{05C540D1-F615-4CDC-B067-E183E34E08D0}"/>
   </bookViews>
@@ -437,7 +437,7 @@
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="164" formatCode="&quot;Rp&quot;#.##0"/>
   </numFmts>
-  <fonts count="9">
+  <fonts count="10">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -496,6 +496,11 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Arial Unicode MS"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -540,7 +545,7 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0"/>
     <xf numFmtId="41" fontId="2" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="20">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -576,6 +581,9 @@
     </xf>
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Comma [0]" xfId="2" builtinId="6"/>
@@ -1023,10 +1031,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3C1FAA-F90F-4FAF-8DA0-E08BDBAFF393}">
-  <dimension ref="A1:E112"/>
+  <dimension ref="A1:E113"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A98" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="C111" sqref="C111:D112"/>
+    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D113" sqref="A113:D113"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -2580,6 +2588,11 @@
       <c r="D112" s="12">
         <v>76590</v>
       </c>
+    </row>
+    <row r="113" spans="1:4">
+      <c r="A113" s="19"/>
+      <c r="C113" s="18"/>
+      <c r="D113"/>
     </row>
   </sheetData>
   <autoFilter ref="A1:D79" xr:uid="{24FB8EEC-E995-4C16-BB43-00156B74BEEA}">

--- a/Order Online/SKU buat andra.xlsx
+++ b/Order Online/SKU buat andra.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.nathanael\Documents\Python\Data\2. Master Data Git\Order Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2B6FA8D4-46F5-464C-A9BD-259B36EF35EA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806F3435-37D7-4CFF-A16D-99418A9E923C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{05C540D1-F615-4CDC-B067-E183E34E08D0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="140" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="141">
   <si>
     <t>L Men Gain Mass Chocolate 500 gr</t>
   </si>
@@ -426,6 +426,42 @@
   </si>
   <si>
     <t>2102500320 (CI160) TS SWT 160S IND</t>
+  </si>
+  <si>
+    <t>1N01402250P4</t>
+  </si>
+  <si>
+    <t>BUY 2 GET 2 - NutriSari RTD Squeezed Orange 200 ml - Minuman Jeruk Peras Vitamin C</t>
+  </si>
+  <si>
+    <t>BUY 1 GET 1 - Tropicana Slim Orange Cocoa 4 Sachet - Minuman Cokelat Jeruk Nikmat Tanpa Gula Pasir</t>
+  </si>
+  <si>
+    <t>2T00803164P2</t>
+  </si>
+  <si>
+    <t>Buy 1 Get 1 Free - HiLo School Strawberry 10 Sachet - Susu Tinggi Kalsium Lebih Rendah Lemak &amp; Gula</t>
+  </si>
+  <si>
+    <t>Buy 1 Get 1 Free - HiLo School 3+ Strawberry Pop 400g</t>
+  </si>
+  <si>
+    <t>2HF0111003P2</t>
+  </si>
+  <si>
+    <t>2HF0113021P2</t>
+  </si>
+  <si>
+    <t>BUY 12 GET 12 - NutriSari RTD Squeezed Orange 200 ml - Minuman Jeruk Peras Vitamin C</t>
+  </si>
+  <si>
+    <t>1N01402250P24</t>
+  </si>
+  <si>
+    <t>BUY 1 GET 1 - Tropicana Slim Peanut Almond Butter Spread Jam 300 gram</t>
+  </si>
+  <si>
+    <t>2T02703229P2</t>
   </si>
 </sst>
 </file>
@@ -1023,7 +1059,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1031,10 +1067,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3C1FAA-F90F-4FAF-8DA0-E08BDBAFF393}">
-  <dimension ref="A1:E113"/>
+  <dimension ref="A1:E118"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A96" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="D113" sqref="A113:D113"/>
+    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="C118" sqref="C118:D118"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -2590,9 +2626,88 @@
       </c>
     </row>
     <row r="113" spans="1:4">
-      <c r="A113" s="19"/>
-      <c r="C113" s="18"/>
-      <c r="D113"/>
+      <c r="A113" s="19" t="s">
+        <v>129</v>
+      </c>
+      <c r="B113" t="s">
+        <v>130</v>
+      </c>
+      <c r="C113" s="18">
+        <v>40000</v>
+      </c>
+      <c r="D113">
+        <v>23088</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4">
+      <c r="A114" t="s">
+        <v>132</v>
+      </c>
+      <c r="B114" t="s">
+        <v>131</v>
+      </c>
+      <c r="C114" s="5">
+        <v>40000</v>
+      </c>
+      <c r="D114" s="3">
+        <v>33300</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4">
+      <c r="A115" t="s">
+        <v>135</v>
+      </c>
+      <c r="B115" t="s">
+        <v>133</v>
+      </c>
+      <c r="C115" s="18">
+        <v>90000</v>
+      </c>
+      <c r="D115">
+        <v>66600</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4">
+      <c r="A116" t="s">
+        <v>136</v>
+      </c>
+      <c r="B116" t="s">
+        <v>134</v>
+      </c>
+      <c r="C116" s="18">
+        <v>199800</v>
+      </c>
+      <c r="D116">
+        <v>99900</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4">
+      <c r="A117" s="19" t="s">
+        <v>138</v>
+      </c>
+      <c r="B117" t="s">
+        <v>137</v>
+      </c>
+      <c r="C117" s="5">
+        <v>240000</v>
+      </c>
+      <c r="D117" s="3">
+        <v>99900</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4">
+      <c r="A118" t="s">
+        <v>140</v>
+      </c>
+      <c r="B118" t="s">
+        <v>139</v>
+      </c>
+      <c r="C118" s="5">
+        <v>184800</v>
+      </c>
+      <c r="D118" s="3">
+        <v>92400</v>
+      </c>
     </row>
   </sheetData>
   <autoFilter ref="A1:D79" xr:uid="{24FB8EEC-E995-4C16-BB43-00156B74BEEA}">
@@ -2678,15 +2793,6 @@
 </file>
 
 <file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
-</file>
-
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x01010036D38FCCD0579445B3C44626B0EC1798" ma:contentTypeVersion="11" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="b26221e4e125bc28b125e145a348a87e">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns3="91e3e34f-efd1-47ae-9232-7a9f8f496e92" xmlns:ns4="86c81e6b-d20c-439f-a303-383fc99047f2" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="73d11df11d72784df8752f1efb773fd0" ns3:_="" ns4:_="">
     <xsd:import namespace="91e3e34f-efd1-47ae-9232-7a9f8f496e92"/>
@@ -2895,6 +3001,15 @@
 </ct:contentTypeSchema>
 </file>
 
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
 <file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{DB85A4BE-2BA5-45BF-A768-5F0B0A569CA7}">
   <ds:schemaRefs>
@@ -2905,14 +3020,6 @@
 </file>
 
 <file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB88AEA9-E134-42D5-871A-0C35B856AF7C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E4B00E6C-B214-4326-9239-6AB29441C914}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -2929,4 +3036,12 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
+</file>
+
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{BB88AEA9-E134-42D5-871A-0C35B856AF7C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
--- a/Order Online/SKU buat andra.xlsx
+++ b/Order Online/SKU buat andra.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\steven.nathanael\Documents\Python\Data\2. Master Data Git\Order Online\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{806F3435-37D7-4CFF-A16D-99418A9E923C}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99AAEB32-F84E-4744-8FAF-A476273547B1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" xr2:uid="{05C540D1-F615-4CDC-B067-E183E34E08D0}"/>
   </bookViews>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="152" uniqueCount="141">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="265" uniqueCount="242">
   <si>
     <t>L Men Gain Mass Chocolate 500 gr</t>
   </si>
@@ -462,6 +462,309 @@
   </si>
   <si>
     <t>2T02703229P2</t>
+  </si>
+  <si>
+    <t>(E)2101452190</t>
+  </si>
+  <si>
+    <t>(Near ED) - HiLo Active Chocolate 750gr</t>
+  </si>
+  <si>
+    <t>Buy 1 Get 1 Free - HiLo Teen Original 400g - Susu Tinggi Kalsium Lebih Rendah Lemak</t>
+  </si>
+  <si>
+    <t>2HC0109021P2</t>
+  </si>
+  <si>
+    <t>Tropicana Slim Orange Cocoa 4 Sachet - Minuman Cokelat Jeruk Nikmat Tanpa Gula Pasir</t>
+  </si>
+  <si>
+    <t>2T00803164</t>
+  </si>
+  <si>
+    <t>(Near ED) HiLo school Chocolate Candy (10 sch)</t>
+  </si>
+  <si>
+    <t>(E)2101481443</t>
+  </si>
+  <si>
+    <t>Buy 1 Get 1 Free - HiLo School Original 400g - Susu Tinggi Kalsium Lebih Rendah Lemak</t>
+  </si>
+  <si>
+    <t>2HF0114021P2</t>
+  </si>
+  <si>
+    <t>2102900319 (D) TS SWT DIABETICS INDUSTRIAL 150S</t>
+  </si>
+  <si>
+    <t>HiLo School Strawberry 10 Sachet - Susu Tinggi Kalsium Lebih Rendah Lemak &amp; Gula</t>
+  </si>
+  <si>
+    <t>2HF0111003</t>
+  </si>
+  <si>
+    <t>BUY1GET 1 - Tropicana Slim French Butter Souffle Coffee 4 Sachet</t>
+  </si>
+  <si>
+    <t>2T01705164P2</t>
+  </si>
+  <si>
+    <t>BUY 1 GET 1 - Tropicana Slim Sweetener Luo Han Guo 50 sachet</t>
+  </si>
+  <si>
+    <t>2T01813126P2</t>
+  </si>
+  <si>
+    <t>NutriSari Premium Jus Mangga 420g - Minuman Juice Kental Rasa Mangga Asli Vitamin C</t>
+  </si>
+  <si>
+    <t>BUY 2 GET 2 - Tropicana Slim RTD Almond Drink Chocolicious 190 ml</t>
+  </si>
+  <si>
+    <t>2T01402249P4</t>
+  </si>
+  <si>
+    <t>BUY 1 GET 1 - Tropicana Slim French Butter Souffle Coffee 4 Sachet</t>
+  </si>
+  <si>
+    <t>BUY 12 GET 12 - Tropicana Slim RTD Almond Drink Chocolicious 190 ml</t>
+  </si>
+  <si>
+    <t>2T01402249P24</t>
+  </si>
+  <si>
+    <t>BUY1GET1 - Tropicana Slim Sweetener Luo Han Guo 50 sachet - Pemanis Alami Natural untuk Batasi Gula</t>
+  </si>
+  <si>
+    <t>BUY1GET 1 - Tropicana Slim Sweetener Luo Han Guo 50 sachet - Pemanis Alami Natural untuk Batasi Gula</t>
+  </si>
+  <si>
+    <t>2T00804164P2</t>
+  </si>
+  <si>
+    <t>BUY 1 GET 1 - Tropicana Slim Salted Caramel Cocoa 4 Sachet</t>
+  </si>
+  <si>
+    <t>(E)1101573453</t>
+  </si>
+  <si>
+    <t>(Near ED) NutriSari Yuzu Orange 40 sch</t>
+  </si>
+  <si>
+    <t>(Near ED) NutriSari Madu Kurma 40sch</t>
+  </si>
+  <si>
+    <t>(Near ED) NutriSari Blewah (40sch)</t>
+  </si>
+  <si>
+    <t>(E)1101979453</t>
+  </si>
+  <si>
+    <t>(E)1101522453</t>
+  </si>
+  <si>
+    <t>Buy 2 Get 2 Free - L-Men UHT PlantProtein 2GO Ogura / Kacang Merah 190ml</t>
+  </si>
+  <si>
+    <t>Buy 1 Get 1 Free - HiLo School 3+ Soya Multigrain Vanilla Malt 400g</t>
+  </si>
+  <si>
+    <t>2HF0112021P2</t>
+  </si>
+  <si>
+    <t>2LL1402249P4</t>
+  </si>
+  <si>
+    <t>2LL1402249P24</t>
+  </si>
+  <si>
+    <t>Buy 12 Get 12 Free - L-Men UHT PlantProtein 2GO Ogura with 12g Protein &amp; 1,6g BCAA</t>
+  </si>
+  <si>
+    <t>2HH0813443</t>
+  </si>
+  <si>
+    <t>HiLo Teh Tarik (10 Sachet) - Teh Tarik Tinggi Kalsium Bervitamin</t>
+  </si>
+  <si>
+    <t>NS W'DANK MADU TEMULAWAK PLS 12Rx10Sx11G</t>
+  </si>
+  <si>
+    <t>(E)2101459180</t>
+  </si>
+  <si>
+    <t>Near ED HiLo School Bubble Gum 500g</t>
+  </si>
+  <si>
+    <t>Buy 1 Get 1 Free - HiLo Teh Tarik (10 Sachet) - Teh Tarik Tinggi Kalsium Bervitamin</t>
+  </si>
+  <si>
+    <t>2HH0813443P2</t>
+  </si>
+  <si>
+    <t>BUY1 GET1 - Tropicana Slim Sweetener Luo Han Guo 50 sachet - Pemanis Alami Natural untuk Batasi Gula</t>
+  </si>
+  <si>
+    <t>2T00805043P2</t>
+  </si>
+  <si>
+    <t>BUY 1 GET 1 - Tropicana Slim Collagen Drink Strawberry 200 gram</t>
+  </si>
+  <si>
+    <t>Hilo Milky Brown Sugar RTD 200ml (6pcs)</t>
+  </si>
+  <si>
+    <t>Buy 12 Get 12 Free - L-Men UHT PlantProtein 2GO Ogura / Kacang Merah 190ml</t>
+  </si>
+  <si>
+    <t>(E)2304008180</t>
+  </si>
+  <si>
+    <t>(Near ED) L-Men Gain Mass Taro 500g (Ags 23)</t>
+  </si>
+  <si>
+    <t>(E)2101469180</t>
+  </si>
+  <si>
+    <t>(Near ED) HiLo Multigrain Original 500g (Ags 23)</t>
+  </si>
+  <si>
+    <t>(E)2101816250</t>
+  </si>
+  <si>
+    <t>(Near ED) HiLo RTD Milky Vanilla Cookies 200ml (Ags 23)</t>
+  </si>
+  <si>
+    <t>(Near ED)HiLo RTD Chocolate Avocado 200ml</t>
+  </si>
+  <si>
+    <t>(E)2HH1407250</t>
+  </si>
+  <si>
+    <t>(Near ED) HiLo School Cotton Candy 200ml - Ready to Drink (24 Pcs) / ED Sept 2023</t>
+  </si>
+  <si>
+    <t>(E)2HF1403250P24</t>
+  </si>
+  <si>
+    <t>(E)1101656360</t>
+  </si>
+  <si>
+    <t>(NEAR ED) Lokalate Kopi Berondong 500 gram</t>
+  </si>
+  <si>
+    <t>(Near ED) Tropicana Slim Susu Low Fat Macchiato Coffee 500 gram / ED Nov 23</t>
+  </si>
+  <si>
+    <t>(E)2105055180</t>
+  </si>
+  <si>
+    <t>Tropicana Slim Peanut Almond Butter Spread Jam 300 gram</t>
+  </si>
+  <si>
+    <t>2T02703229</t>
+  </si>
+  <si>
+    <t>(E)2101551195</t>
+  </si>
+  <si>
+    <t>(Near ED) HiLo Gold Chocolate 1000g / ED Okt 23</t>
+  </si>
+  <si>
+    <t>(E)1101591453</t>
+  </si>
+  <si>
+    <t>(E)2101651195</t>
+  </si>
+  <si>
+    <t>Near ED - HiLo Teen Chocolate 1000 gr / ED Okt 23</t>
+  </si>
+  <si>
+    <t>(Near ED) NutriSari Gula Asem 40 Sachet</t>
+  </si>
+  <si>
+    <t>(Near ED) NutriSari Gula Asem 40 Sachet / ED Nov 23</t>
+  </si>
+  <si>
+    <t>2T01813126</t>
+  </si>
+  <si>
+    <t>Tropicana Slim Sweetener Luo Han Guo 50 sachet - Pemanis Alami Natural untuk Batasi Gula</t>
+  </si>
+  <si>
+    <t>(Near ED) Lokalate Kopi Berondong 500 gram - Tinggi Vitamin A Lebih Rendah Gula / ED Sept 23</t>
+  </si>
+  <si>
+    <t>(E)1101907331</t>
+  </si>
+  <si>
+    <t>Near ED - NutriSari Florida Orange (40sch)</t>
+  </si>
+  <si>
+    <t>(Near ED) L-Men Platinum Choco 800 gr</t>
+  </si>
+  <si>
+    <t>(E)2305551288</t>
+  </si>
+  <si>
+    <t>(Near ED) Lokalate Kopi Berondong 500 gram - Tinggi Vitamin A Lebih Rendah Gula</t>
+  </si>
+  <si>
+    <t>(Near ED) HiLo Teen Biscuit Caramel 500gr / ED Nov 23</t>
+  </si>
+  <si>
+    <t>(E)2101618180</t>
+  </si>
+  <si>
+    <t>(E)2101384106</t>
+  </si>
+  <si>
+    <t>(Near ED) Tropicana Slim Goldenmil Vanilla (6 sch)</t>
+  </si>
+  <si>
+    <t>(Near ED) Lokalate Kopi Berondong 500 gram</t>
+  </si>
+  <si>
+    <t>(Near ED) HiLo RTD Chocolate Avocado 200ml</t>
+  </si>
+  <si>
+    <t>(E)2304576112</t>
+  </si>
+  <si>
+    <t>(Near ED) L-Men Lose Weight Mango Sticky Rice 300gr / ED Nov 23</t>
+  </si>
+  <si>
+    <t>Buy 2 Get 2 Free - L-Men UHT PlantProtein 2GO Ogura / Kacang Merah 190ml (4pcs) with 12g Protein &amp; 1,6g BCAA / Serving - Suplemen Tinggi Protein Nabati Siap Minum</t>
+  </si>
+  <si>
+    <t>Buy 2 Get 2 Free - L-Men UHT PlantProtein 2GO Ogura with 12g Protein &amp; 1,6g BCAA</t>
+  </si>
+  <si>
+    <t>NutriSari Isotonik 40 Sachet – Minuman Isotonik Buah Jeruk Segar</t>
+  </si>
+  <si>
+    <t>1N00838454</t>
+  </si>
+  <si>
+    <t>Near ED BUY 1 GET 1 Tropicana Slim Extra Virgin Olive Oil 500 ml</t>
+  </si>
+  <si>
+    <t>(E)2104407P2</t>
+  </si>
+  <si>
+    <t>(Near ED) Tropicana Slim BROWNIES Instant Powder Cake Mix 230 g</t>
+  </si>
+  <si>
+    <t>(E)2106317152</t>
+  </si>
+  <si>
+    <t>2LM0801029</t>
+  </si>
+  <si>
+    <t>L-Men Isopower Stargizing 30 Sachet with Creatine &amp; Vitamin B</t>
+  </si>
+  <si>
+    <t>HiLo School Cokelat 30gr (10sch)</t>
   </si>
 </sst>
 </file>
@@ -1059,7 +1362,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -1067,10 +1370,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8A3C1FAA-F90F-4FAF-8DA0-E08BDBAFF393}">
-  <dimension ref="A1:E118"/>
+  <dimension ref="A1:E177"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C118" sqref="C118:D118"/>
+    <sheetView tabSelected="1" topLeftCell="A174" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="A177" sqref="A177:D177"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.5"/>
@@ -2707,6 +3010,832 @@
       </c>
       <c r="D118" s="3">
         <v>92400</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4">
+      <c r="A119" t="s">
+        <v>141</v>
+      </c>
+      <c r="B119" t="s">
+        <v>142</v>
+      </c>
+      <c r="C119" s="18">
+        <v>103900</v>
+      </c>
+      <c r="D119" s="3">
+        <v>51950</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4">
+      <c r="A120" t="s">
+        <v>144</v>
+      </c>
+      <c r="B120" t="s">
+        <v>143</v>
+      </c>
+      <c r="C120" s="18">
+        <v>191400</v>
+      </c>
+      <c r="D120" s="3">
+        <v>95700</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4">
+      <c r="A121" t="s">
+        <v>146</v>
+      </c>
+      <c r="B121" t="s">
+        <v>145</v>
+      </c>
+      <c r="C121" s="5">
+        <v>20000</v>
+      </c>
+      <c r="D121" s="3">
+        <v>16650</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4">
+      <c r="A122" t="s">
+        <v>148</v>
+      </c>
+      <c r="B122" t="s">
+        <v>147</v>
+      </c>
+      <c r="C122" s="5">
+        <v>23100</v>
+      </c>
+      <c r="D122" s="3">
+        <v>11550</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4">
+      <c r="A123" t="s">
+        <v>150</v>
+      </c>
+      <c r="B123" t="s">
+        <v>149</v>
+      </c>
+      <c r="C123" s="5">
+        <v>191400</v>
+      </c>
+      <c r="D123" s="3">
+        <v>95700</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4">
+      <c r="A124">
+        <v>2102900319</v>
+      </c>
+      <c r="B124" t="s">
+        <v>151</v>
+      </c>
+      <c r="C124" s="5">
+        <v>82500</v>
+      </c>
+      <c r="D124" s="3">
+        <v>82500</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4">
+      <c r="A125" t="s">
+        <v>153</v>
+      </c>
+      <c r="B125" t="s">
+        <v>152</v>
+      </c>
+      <c r="C125" s="5">
+        <v>45000</v>
+      </c>
+      <c r="D125" s="3">
+        <v>45000</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4">
+      <c r="A126" t="s">
+        <v>155</v>
+      </c>
+      <c r="B126" t="s">
+        <v>154</v>
+      </c>
+      <c r="C126" s="5">
+        <v>32400</v>
+      </c>
+      <c r="D126" s="3">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4">
+      <c r="A127" t="s">
+        <v>157</v>
+      </c>
+      <c r="B127" t="s">
+        <v>156</v>
+      </c>
+      <c r="C127" s="5">
+        <v>115400</v>
+      </c>
+      <c r="D127" s="3">
+        <v>57700</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4">
+      <c r="A128">
+        <v>1100534034</v>
+      </c>
+      <c r="B128" t="s">
+        <v>158</v>
+      </c>
+      <c r="C128" s="5">
+        <v>46600</v>
+      </c>
+      <c r="D128" s="3">
+        <v>39960</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4">
+      <c r="A129" t="s">
+        <v>160</v>
+      </c>
+      <c r="B129" t="s">
+        <v>159</v>
+      </c>
+      <c r="C129" s="5">
+        <v>33400</v>
+      </c>
+      <c r="D129" s="3">
+        <v>16700</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4">
+      <c r="A130" t="s">
+        <v>155</v>
+      </c>
+      <c r="B130" t="s">
+        <v>161</v>
+      </c>
+      <c r="C130" s="5">
+        <v>32400</v>
+      </c>
+      <c r="D130" s="3">
+        <v>16200</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4">
+      <c r="A131" t="s">
+        <v>163</v>
+      </c>
+      <c r="B131" t="s">
+        <v>162</v>
+      </c>
+      <c r="C131" s="5">
+        <v>199800</v>
+      </c>
+      <c r="D131" s="3">
+        <v>99900</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4">
+      <c r="A132" t="s">
+        <v>157</v>
+      </c>
+      <c r="B132" t="s">
+        <v>164</v>
+      </c>
+      <c r="C132" s="18">
+        <v>115400</v>
+      </c>
+      <c r="D132" s="3">
+        <v>57700</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4">
+      <c r="A133" t="s">
+        <v>157</v>
+      </c>
+      <c r="B133" t="s">
+        <v>165</v>
+      </c>
+      <c r="C133" s="18">
+        <v>115400</v>
+      </c>
+      <c r="D133" s="3">
+        <v>57700</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4">
+      <c r="A134" t="s">
+        <v>166</v>
+      </c>
+      <c r="B134" t="s">
+        <v>167</v>
+      </c>
+      <c r="C134" s="18">
+        <v>33300</v>
+      </c>
+      <c r="D134" s="3">
+        <v>16650</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4">
+      <c r="A135" t="s">
+        <v>168</v>
+      </c>
+      <c r="B135" t="s">
+        <v>169</v>
+      </c>
+      <c r="C135" s="18">
+        <v>47300</v>
+      </c>
+      <c r="D135" s="3">
+        <v>23650</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4">
+      <c r="A136" t="s">
+        <v>172</v>
+      </c>
+      <c r="B136" t="s">
+        <v>170</v>
+      </c>
+      <c r="C136" s="18">
+        <v>47300</v>
+      </c>
+      <c r="D136" s="3">
+        <v>23650</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4">
+      <c r="A137" t="s">
+        <v>173</v>
+      </c>
+      <c r="B137" t="s">
+        <v>171</v>
+      </c>
+      <c r="C137" s="18">
+        <v>47300</v>
+      </c>
+      <c r="D137" s="3">
+        <v>23650</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4">
+      <c r="A138" t="s">
+        <v>177</v>
+      </c>
+      <c r="B138" t="s">
+        <v>174</v>
+      </c>
+      <c r="C138" s="5">
+        <v>61600</v>
+      </c>
+      <c r="D138" s="3">
+        <v>30800</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4">
+      <c r="A139" t="s">
+        <v>176</v>
+      </c>
+      <c r="B139" t="s">
+        <v>175</v>
+      </c>
+      <c r="C139" s="5">
+        <v>199800</v>
+      </c>
+      <c r="D139" s="3">
+        <v>166500</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4">
+      <c r="A140" t="s">
+        <v>178</v>
+      </c>
+      <c r="B140" t="s">
+        <v>179</v>
+      </c>
+      <c r="C140" s="18">
+        <v>319680</v>
+      </c>
+      <c r="D140" s="3">
+        <v>159840</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4">
+      <c r="A141" t="s">
+        <v>180</v>
+      </c>
+      <c r="B141" t="s">
+        <v>181</v>
+      </c>
+      <c r="C141" s="18">
+        <v>16095</v>
+      </c>
+      <c r="D141" s="18">
+        <v>16095</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4">
+      <c r="A142">
+        <v>1101618318</v>
+      </c>
+      <c r="B142" t="s">
+        <v>182</v>
+      </c>
+      <c r="C142" s="18">
+        <v>18000</v>
+      </c>
+      <c r="D142" s="3">
+        <v>18000</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4">
+      <c r="A143" t="s">
+        <v>183</v>
+      </c>
+      <c r="B143" t="s">
+        <v>184</v>
+      </c>
+      <c r="C143" s="18">
+        <v>80100</v>
+      </c>
+      <c r="D143" s="3">
+        <v>40050</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4">
+      <c r="A144" t="s">
+        <v>186</v>
+      </c>
+      <c r="B144" t="s">
+        <v>185</v>
+      </c>
+      <c r="C144" s="5">
+        <v>32190</v>
+      </c>
+      <c r="D144" s="3">
+        <v>16095</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4">
+      <c r="A145" t="s">
+        <v>157</v>
+      </c>
+      <c r="B145" t="s">
+        <v>187</v>
+      </c>
+      <c r="C145" s="5">
+        <v>115400</v>
+      </c>
+      <c r="D145" s="3">
+        <v>57700</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4">
+      <c r="A146" t="s">
+        <v>188</v>
+      </c>
+      <c r="B146" t="s">
+        <v>189</v>
+      </c>
+      <c r="C146" s="18">
+        <v>366300</v>
+      </c>
+      <c r="D146" s="3">
+        <v>183150</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4">
+      <c r="A147">
+        <v>2101941250</v>
+      </c>
+      <c r="B147" t="s">
+        <v>190</v>
+      </c>
+      <c r="C147" s="5">
+        <v>37800</v>
+      </c>
+      <c r="D147" s="3">
+        <v>37800</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4">
+      <c r="A148" t="s">
+        <v>178</v>
+      </c>
+      <c r="B148" t="s">
+        <v>191</v>
+      </c>
+      <c r="C148" s="18">
+        <v>319680</v>
+      </c>
+      <c r="D148" s="3">
+        <v>159840</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4">
+      <c r="A149" t="s">
+        <v>192</v>
+      </c>
+      <c r="B149" t="s">
+        <v>193</v>
+      </c>
+      <c r="C149" s="18">
+        <v>66950</v>
+      </c>
+      <c r="D149" s="3">
+        <v>66950</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4">
+      <c r="A150" t="s">
+        <v>194</v>
+      </c>
+      <c r="B150" t="s">
+        <v>195</v>
+      </c>
+      <c r="C150" s="12">
+        <v>49650</v>
+      </c>
+      <c r="D150" s="12">
+        <v>49650</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4">
+      <c r="A151" t="s">
+        <v>196</v>
+      </c>
+      <c r="B151" t="s">
+        <v>197</v>
+      </c>
+      <c r="C151" s="18">
+        <v>3850</v>
+      </c>
+      <c r="D151" s="18">
+        <v>3850</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4">
+      <c r="A152" t="s">
+        <v>199</v>
+      </c>
+      <c r="B152" t="s">
+        <v>198</v>
+      </c>
+      <c r="C152" s="5">
+        <v>6300</v>
+      </c>
+      <c r="D152" s="3">
+        <v>3150</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4">
+      <c r="A153" t="s">
+        <v>201</v>
+      </c>
+      <c r="B153" t="s">
+        <v>200</v>
+      </c>
+      <c r="C153" s="5">
+        <v>171800</v>
+      </c>
+      <c r="D153" s="3">
+        <v>85900</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4">
+      <c r="A154" t="s">
+        <v>202</v>
+      </c>
+      <c r="B154" t="s">
+        <v>203</v>
+      </c>
+      <c r="C154" s="18">
+        <v>48500</v>
+      </c>
+      <c r="D154" s="3">
+        <v>24250</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4">
+      <c r="A155" t="s">
+        <v>205</v>
+      </c>
+      <c r="B155" t="s">
+        <v>204</v>
+      </c>
+      <c r="C155" s="5">
+        <v>85400</v>
+      </c>
+      <c r="D155" s="3">
+        <v>42700</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4">
+      <c r="A156" t="s">
+        <v>207</v>
+      </c>
+      <c r="B156" t="s">
+        <v>206</v>
+      </c>
+      <c r="C156" s="18">
+        <v>92400</v>
+      </c>
+      <c r="D156" s="3">
+        <v>66600</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4">
+      <c r="A157" t="s">
+        <v>208</v>
+      </c>
+      <c r="B157" t="s">
+        <v>209</v>
+      </c>
+      <c r="C157" s="18">
+        <v>147800</v>
+      </c>
+      <c r="D157" s="3">
+        <v>73900</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4">
+      <c r="A158" t="s">
+        <v>210</v>
+      </c>
+      <c r="B158" t="s">
+        <v>213</v>
+      </c>
+      <c r="C158" s="18">
+        <v>47300</v>
+      </c>
+      <c r="D158" s="3">
+        <v>23650</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4">
+      <c r="A159" t="s">
+        <v>211</v>
+      </c>
+      <c r="B159" t="s">
+        <v>212</v>
+      </c>
+      <c r="C159" s="18">
+        <v>161600</v>
+      </c>
+      <c r="D159" s="3">
+        <v>80800</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4">
+      <c r="A160" t="s">
+        <v>210</v>
+      </c>
+      <c r="B160" t="s">
+        <v>214</v>
+      </c>
+      <c r="C160" s="18">
+        <v>47300</v>
+      </c>
+      <c r="D160" s="3">
+        <v>23650</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4">
+      <c r="A161" t="s">
+        <v>215</v>
+      </c>
+      <c r="B161" t="s">
+        <v>216</v>
+      </c>
+      <c r="C161" s="18">
+        <v>57700</v>
+      </c>
+      <c r="D161" s="3">
+        <v>57700</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4">
+      <c r="A162" t="s">
+        <v>202</v>
+      </c>
+      <c r="B162" t="s">
+        <v>217</v>
+      </c>
+      <c r="C162" s="5">
+        <v>48500</v>
+      </c>
+      <c r="D162" s="3">
+        <v>24250</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4">
+      <c r="A163" t="s">
+        <v>218</v>
+      </c>
+      <c r="B163" t="s">
+        <v>219</v>
+      </c>
+      <c r="C163" s="18">
+        <v>47300</v>
+      </c>
+      <c r="D163" s="12">
+        <v>23650</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4">
+      <c r="A164" t="s">
+        <v>221</v>
+      </c>
+      <c r="B164" t="s">
+        <v>220</v>
+      </c>
+      <c r="C164" s="18">
+        <v>375200</v>
+      </c>
+      <c r="D164" s="3">
+        <v>187600</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4">
+      <c r="A165" t="s">
+        <v>202</v>
+      </c>
+      <c r="B165" t="s">
+        <v>222</v>
+      </c>
+      <c r="C165" s="5">
+        <v>48500</v>
+      </c>
+      <c r="D165" s="3">
+        <v>24250</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4">
+      <c r="A166" t="s">
+        <v>224</v>
+      </c>
+      <c r="B166" t="s">
+        <v>223</v>
+      </c>
+      <c r="C166" s="5">
+        <v>87700</v>
+      </c>
+      <c r="D166" s="3">
+        <v>43850</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4">
+      <c r="A167" t="s">
+        <v>225</v>
+      </c>
+      <c r="B167" t="s">
+        <v>226</v>
+      </c>
+      <c r="C167" s="18">
+        <v>33500</v>
+      </c>
+      <c r="D167" s="3">
+        <v>16750</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4">
+      <c r="A168" t="s">
+        <v>202</v>
+      </c>
+      <c r="B168" t="s">
+        <v>227</v>
+      </c>
+      <c r="C168" s="5">
+        <v>48500</v>
+      </c>
+      <c r="D168" s="3">
+        <v>24250</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4">
+      <c r="A169" t="s">
+        <v>199</v>
+      </c>
+      <c r="B169" t="s">
+        <v>228</v>
+      </c>
+      <c r="C169" s="18">
+        <v>6300</v>
+      </c>
+      <c r="D169" s="3">
+        <v>1890</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4">
+      <c r="A170" t="s">
+        <v>229</v>
+      </c>
+      <c r="B170" t="s">
+        <v>230</v>
+      </c>
+      <c r="C170" s="18">
+        <v>152400</v>
+      </c>
+      <c r="D170" s="3">
+        <v>76200</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4">
+      <c r="A171" t="s">
+        <v>177</v>
+      </c>
+      <c r="B171" t="s">
+        <v>231</v>
+      </c>
+      <c r="C171" s="5">
+        <v>61600</v>
+      </c>
+      <c r="D171" s="3">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4">
+      <c r="A172" t="s">
+        <v>177</v>
+      </c>
+      <c r="B172" t="s">
+        <v>232</v>
+      </c>
+      <c r="C172" s="5">
+        <v>61600</v>
+      </c>
+      <c r="D172" s="3">
+        <v>61600</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4">
+      <c r="A173" t="s">
+        <v>234</v>
+      </c>
+      <c r="B173" t="s">
+        <v>233</v>
+      </c>
+      <c r="C173" s="5">
+        <v>62000</v>
+      </c>
+      <c r="D173" s="3">
+        <v>45150</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4">
+      <c r="A174" t="s">
+        <v>236</v>
+      </c>
+      <c r="B174" t="s">
+        <v>235</v>
+      </c>
+      <c r="C174" s="5">
+        <v>184800</v>
+      </c>
+      <c r="D174" s="3">
+        <v>92400</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4">
+      <c r="A175" t="s">
+        <v>238</v>
+      </c>
+      <c r="B175" t="s">
+        <v>237</v>
+      </c>
+      <c r="C175" s="5">
+        <v>34600</v>
+      </c>
+      <c r="D175" s="3">
+        <v>17300</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4">
+      <c r="A176" t="s">
+        <v>239</v>
+      </c>
+      <c r="B176" t="s">
+        <v>240</v>
+      </c>
+      <c r="C176" s="18">
+        <v>111000</v>
+      </c>
+      <c r="D176" s="3">
+        <v>88800</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4">
+      <c r="A177">
+        <v>2101477447</v>
+      </c>
+      <c r="B177" t="s">
+        <v>241</v>
+      </c>
+      <c r="C177" s="5">
+        <v>33300</v>
+      </c>
+      <c r="D177" s="3">
+        <v>33300</v>
       </c>
     </row>
   </sheetData>
